--- a/PythonResources/Data/Consumption/Sympheny/base_CC_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_CC_coo.xlsx
@@ -447,7 +447,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>65.21240909669059</v>
+        <v>65.21240909669058</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -471,7 +471,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>58.45712165554658</v>
+        <v>58.45712165554657</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -903,7 +903,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>63.56769442772312</v>
+        <v>63.56769442772311</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -983,7 +983,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>37.48495812894071</v>
+        <v>37.4849581289407</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>6.715400472782201</v>
+        <v>6.7154004727822</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>7.325603682378987</v>
+        <v>7.325603682378986</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>7.371938213591346</v>
+        <v>7.371938213591345</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -8191,7 +8191,7 @@
         <v>981</v>
       </c>
       <c r="B981">
-        <v>7.691883866497936</v>
+        <v>7.691883866497935</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>983</v>
       </c>
       <c r="B983">
-        <v>7.738423547437358</v>
+        <v>7.738423547437357</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -10079,7 +10079,7 @@
         <v>1217</v>
       </c>
       <c r="B1217">
-        <v>46.0221174851457</v>
+        <v>46.02211748514569</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -10135,7 +10135,7 @@
         <v>1224</v>
       </c>
       <c r="B1224">
-        <v>35.36019309864596</v>
+        <v>35.36019309864595</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
@@ -10295,7 +10295,7 @@
         <v>1244</v>
       </c>
       <c r="B1244">
-        <v>24.86748792986928</v>
+        <v>24.86748792986927</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
@@ -10343,7 +10343,7 @@
         <v>1250</v>
       </c>
       <c r="B1250">
-        <v>16.51965246463952</v>
+        <v>16.51965246463951</v>
       </c>
     </row>
     <row r="1251" spans="1:2">
@@ -10367,7 +10367,7 @@
         <v>1253</v>
       </c>
       <c r="B1253">
-        <v>11.38830095582189</v>
+        <v>11.38830095582188</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
@@ -10711,7 +10711,7 @@
         <v>1296</v>
       </c>
       <c r="B1296">
-        <v>11.76094078147979</v>
+        <v>11.76094078147978</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
@@ -11023,7 +11023,7 @@
         <v>1335</v>
       </c>
       <c r="B1335">
-        <v>76.77347542980334</v>
+        <v>76.77347542980333</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
@@ -11079,7 +11079,7 @@
         <v>1342</v>
       </c>
       <c r="B1342">
-        <v>63.14772362932141</v>
+        <v>63.1477236293214</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
@@ -11351,7 +11351,7 @@
         <v>1376</v>
       </c>
       <c r="B1376">
-        <v>8.71918577831755</v>
+        <v>8.719185778317549</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
@@ -11463,7 +11463,7 @@
         <v>1390</v>
       </c>
       <c r="B1390">
-        <v>63.12984629596307</v>
+        <v>63.12984629596306</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
@@ -11487,7 +11487,7 @@
         <v>1393</v>
       </c>
       <c r="B1393">
-        <v>52.00428352630108</v>
+        <v>52.00428352630107</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
@@ -11495,7 +11495,7 @@
         <v>1394</v>
       </c>
       <c r="B1394">
-        <v>53.24749087230251</v>
+        <v>53.2474908723025</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
@@ -11543,7 +11543,7 @@
         <v>1400</v>
       </c>
       <c r="B1400">
-        <v>53.71347382377405</v>
+        <v>53.71347382377404</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
@@ -11567,7 +11567,7 @@
         <v>1403</v>
       </c>
       <c r="B1403">
-        <v>58.39586980846636</v>
+        <v>58.39586980846635</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
@@ -11591,7 +11591,7 @@
         <v>1406</v>
       </c>
       <c r="B1406">
-        <v>61.43267191107522</v>
+        <v>61.43267191107521</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
@@ -11599,7 +11599,7 @@
         <v>1407</v>
       </c>
       <c r="B1407">
-        <v>81.91247609273003</v>
+        <v>81.91247609273002</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
@@ -12751,7 +12751,7 @@
         <v>1551</v>
       </c>
       <c r="B1551">
-        <v>7.324167634289546</v>
+        <v>7.324167634289545</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -12975,7 +12975,7 @@
         <v>1579</v>
       </c>
       <c r="B1579">
-        <v>52.61562971294865</v>
+        <v>52.61562971294864</v>
       </c>
     </row>
     <row r="1580" spans="1:2">
@@ -13695,7 +13695,7 @@
         <v>1669</v>
       </c>
       <c r="B1669">
-        <v>7.938327302908262</v>
+        <v>7.938327302908261</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
@@ -13703,7 +13703,7 @@
         <v>1670</v>
       </c>
       <c r="B1670">
-        <v>7.324167634289546</v>
+        <v>7.324167634289545</v>
       </c>
     </row>
     <row r="1671" spans="1:2">
@@ -15063,7 +15063,7 @@
         <v>1840</v>
       </c>
       <c r="B1840">
-        <v>29.15180552274789</v>
+        <v>29.15180552274788</v>
       </c>
     </row>
     <row r="1841" spans="1:2">
@@ -15271,7 +15271,7 @@
         <v>1866</v>
       </c>
       <c r="B1866">
-        <v>6.418431589306659</v>
+        <v>6.418431589306658</v>
       </c>
     </row>
     <row r="1867" spans="1:2">
@@ -17343,7 +17343,7 @@
         <v>2125</v>
       </c>
       <c r="B2125">
-        <v>47.87198188117611</v>
+        <v>47.8719818811761</v>
       </c>
     </row>
     <row r="2126" spans="1:2">
@@ -17375,7 +17375,7 @@
         <v>2129</v>
       </c>
       <c r="B2129">
-        <v>45.52037986695748</v>
+        <v>45.52037986695747</v>
       </c>
     </row>
     <row r="2130" spans="1:2">
@@ -17535,7 +17535,7 @@
         <v>2149</v>
       </c>
       <c r="B2149">
-        <v>7.941580391437403</v>
+        <v>7.941580391437402</v>
       </c>
     </row>
     <row r="2150" spans="1:2">
@@ -17575,7 +17575,7 @@
         <v>2154</v>
       </c>
       <c r="B2154">
-        <v>7.416279861740808</v>
+        <v>7.416279861740807</v>
       </c>
     </row>
     <row r="2155" spans="1:2">
@@ -17711,7 +17711,7 @@
         <v>2171</v>
       </c>
       <c r="B2171">
-        <v>7.933960544432208</v>
+        <v>7.933960544432207</v>
       </c>
     </row>
     <row r="2172" spans="1:2">
@@ -17751,7 +17751,7 @@
         <v>2176</v>
       </c>
       <c r="B2176">
-        <v>37.6912801401583</v>
+        <v>37.69128014015829</v>
       </c>
     </row>
     <row r="2177" spans="1:2">
@@ -17911,7 +17911,7 @@
         <v>2196</v>
       </c>
       <c r="B2196">
-        <v>38.49136407570377</v>
+        <v>38.49136407570376</v>
       </c>
     </row>
     <row r="2197" spans="1:2">
@@ -17943,7 +17943,7 @@
         <v>2200</v>
       </c>
       <c r="B2200">
-        <v>58.97702967813181</v>
+        <v>58.9770296781318</v>
       </c>
     </row>
     <row r="2201" spans="1:2">
@@ -17967,7 +17967,7 @@
         <v>2203</v>
       </c>
       <c r="B2203">
-        <v>37.046816926142</v>
+        <v>37.04681692614199</v>
       </c>
     </row>
     <row r="2204" spans="1:2">
@@ -17999,7 +17999,7 @@
         <v>2207</v>
       </c>
       <c r="B2207">
-        <v>19.8214200933021</v>
+        <v>19.82142009330209</v>
       </c>
     </row>
     <row r="2208" spans="1:2">
@@ -18327,7 +18327,7 @@
         <v>2248</v>
       </c>
       <c r="B2248">
-        <v>101.5725605792491</v>
+        <v>101.572560579249</v>
       </c>
     </row>
     <row r="2249" spans="1:2">
@@ -18351,7 +18351,7 @@
         <v>2251</v>
       </c>
       <c r="B2251">
-        <v>76.01705907901841</v>
+        <v>76.0170590790184</v>
       </c>
     </row>
     <row r="2252" spans="1:2">
@@ -18439,7 +18439,7 @@
         <v>2262</v>
       </c>
       <c r="B2262">
-        <v>20.46893124612048</v>
+        <v>20.46893124612047</v>
       </c>
     </row>
     <row r="2263" spans="1:2">
@@ -18655,7 +18655,7 @@
         <v>2289</v>
       </c>
       <c r="B2289">
-        <v>70.1905137593922</v>
+        <v>70.19051375939219</v>
       </c>
     </row>
     <row r="2290" spans="1:2">
@@ -18671,7 +18671,7 @@
         <v>2291</v>
       </c>
       <c r="B2291">
-        <v>132.3256769501387</v>
+        <v>132.3256769501386</v>
       </c>
     </row>
     <row r="2292" spans="1:2">
@@ -18687,7 +18687,7 @@
         <v>2293</v>
       </c>
       <c r="B2293">
-        <v>138.9490824238851</v>
+        <v>138.949082423885</v>
       </c>
     </row>
     <row r="2294" spans="1:2">
@@ -18703,7 +18703,7 @@
         <v>2295</v>
       </c>
       <c r="B2295">
-        <v>142.7097699919875</v>
+        <v>142.7097699919874</v>
       </c>
     </row>
     <row r="2296" spans="1:2">
@@ -18767,7 +18767,7 @@
         <v>2303</v>
       </c>
       <c r="B2303">
-        <v>128.6690296007611</v>
+        <v>128.669029600761</v>
       </c>
     </row>
     <row r="2304" spans="1:2">
@@ -18847,7 +18847,7 @@
         <v>2313</v>
       </c>
       <c r="B2313">
-        <v>65.56409434308421</v>
+        <v>65.56409434308419</v>
       </c>
     </row>
     <row r="2314" spans="1:2">
@@ -18855,7 +18855,7 @@
         <v>2314</v>
       </c>
       <c r="B2314">
-        <v>69.50296910269269</v>
+        <v>69.50296910269267</v>
       </c>
     </row>
     <row r="2315" spans="1:2">
@@ -18863,7 +18863,7 @@
         <v>2315</v>
       </c>
       <c r="B2315">
-        <v>69.20432971429678</v>
+        <v>69.20432971429676</v>
       </c>
     </row>
     <row r="2316" spans="1:2">
@@ -18935,7 +18935,7 @@
         <v>2324</v>
       </c>
       <c r="B2324">
-        <v>46.35065011948507</v>
+        <v>46.35065011948506</v>
       </c>
     </row>
     <row r="2325" spans="1:2">
@@ -18943,7 +18943,7 @@
         <v>2325</v>
       </c>
       <c r="B2325">
-        <v>36.95743025935029</v>
+        <v>36.95743025935028</v>
       </c>
     </row>
     <row r="2326" spans="1:2">
@@ -18951,7 +18951,7 @@
         <v>2326</v>
       </c>
       <c r="B2326">
-        <v>28.44802473050653</v>
+        <v>28.44802473050652</v>
       </c>
     </row>
     <row r="2327" spans="1:2">
@@ -19095,7 +19095,7 @@
         <v>2344</v>
       </c>
       <c r="B2344">
-        <v>55.56568278811375</v>
+        <v>55.56568278811374</v>
       </c>
     </row>
     <row r="2345" spans="1:2">
@@ -19639,7 +19639,7 @@
         <v>2412</v>
       </c>
       <c r="B2412">
-        <v>7.939763350997702</v>
+        <v>7.939763350997701</v>
       </c>
     </row>
     <row r="2413" spans="1:2">
@@ -19815,7 +19815,7 @@
         <v>2434</v>
       </c>
       <c r="B2434">
-        <v>48.72774931406724</v>
+        <v>48.72774931406723</v>
       </c>
     </row>
     <row r="2435" spans="1:2">
@@ -19855,7 +19855,7 @@
         <v>2439</v>
       </c>
       <c r="B2439">
-        <v>81.8793590653613</v>
+        <v>81.87935906536129</v>
       </c>
     </row>
     <row r="2440" spans="1:2">
@@ -19879,7 +19879,7 @@
         <v>2442</v>
       </c>
       <c r="B2442">
-        <v>73.29354991673853</v>
+        <v>73.29354991673851</v>
       </c>
     </row>
     <row r="2443" spans="1:2">
@@ -19903,7 +19903,7 @@
         <v>2445</v>
       </c>
       <c r="B2445">
-        <v>82.01710245353213</v>
+        <v>82.01710245353212</v>
       </c>
     </row>
     <row r="2446" spans="1:2">
@@ -19911,7 +19911,7 @@
         <v>2446</v>
       </c>
       <c r="B2446">
-        <v>82.00655189614032</v>
+        <v>82.00655189614031</v>
       </c>
     </row>
     <row r="2447" spans="1:2">
@@ -19927,7 +19927,7 @@
         <v>2448</v>
       </c>
       <c r="B2448">
-        <v>95.29761657047101</v>
+        <v>95.29761657047098</v>
       </c>
     </row>
     <row r="2449" spans="1:2">
@@ -20023,7 +20023,7 @@
         <v>2460</v>
       </c>
       <c r="B2460">
-        <v>45.49458961555528</v>
+        <v>45.49458961555527</v>
       </c>
     </row>
     <row r="2461" spans="1:2">
@@ -20063,7 +20063,7 @@
         <v>2465</v>
       </c>
       <c r="B2465">
-        <v>19.16136550002902</v>
+        <v>19.16136550002901</v>
       </c>
     </row>
     <row r="2466" spans="1:2">
@@ -20575,7 +20575,7 @@
         <v>2529</v>
       </c>
       <c r="B2529">
-        <v>31.01219116906624</v>
+        <v>31.01219116906623</v>
       </c>
     </row>
     <row r="2530" spans="1:2">
@@ -20583,7 +20583,7 @@
         <v>2530</v>
       </c>
       <c r="B2530">
-        <v>47.78493978269369</v>
+        <v>47.78493978269368</v>
       </c>
     </row>
     <row r="2531" spans="1:2">
@@ -20639,7 +20639,7 @@
         <v>2537</v>
       </c>
       <c r="B2537">
-        <v>86.13357826256939</v>
+        <v>86.13357826256937</v>
       </c>
     </row>
     <row r="2538" spans="1:2">
@@ -20799,7 +20799,7 @@
         <v>2557</v>
       </c>
       <c r="B2557">
-        <v>7.377653098845242</v>
+        <v>7.377653098845241</v>
       </c>
     </row>
     <row r="2558" spans="1:2">
@@ -21151,7 +21151,7 @@
         <v>2601</v>
       </c>
       <c r="B2601">
-        <v>7.936715412195625</v>
+        <v>7.936715412195624</v>
       </c>
     </row>
     <row r="2602" spans="1:2">
@@ -21767,7 +21767,7 @@
         <v>2678</v>
       </c>
       <c r="B2678">
-        <v>30.34340305884105</v>
+        <v>30.34340305884104</v>
       </c>
     </row>
     <row r="2679" spans="1:2">
@@ -21927,7 +21927,7 @@
         <v>2698</v>
       </c>
       <c r="B2698">
-        <v>7.930824684318531</v>
+        <v>7.93082468431853</v>
       </c>
     </row>
     <row r="2699" spans="1:2">
@@ -22247,7 +22247,7 @@
         <v>2738</v>
       </c>
       <c r="B2738">
-        <v>6.693537373298064</v>
+        <v>6.693537373298063</v>
       </c>
     </row>
     <row r="2739" spans="1:2">
@@ -22279,7 +22279,7 @@
         <v>2742</v>
       </c>
       <c r="B2742">
-        <v>7.941580391437403</v>
+        <v>7.941580391437402</v>
       </c>
     </row>
     <row r="2743" spans="1:2">
@@ -22287,7 +22287,7 @@
         <v>2743</v>
       </c>
       <c r="B2743">
-        <v>7.786457890673953</v>
+        <v>7.786457890673952</v>
       </c>
     </row>
     <row r="2744" spans="1:2">
@@ -22327,7 +22327,7 @@
         <v>2748</v>
       </c>
       <c r="B2748">
-        <v>54.63342381413201</v>
+        <v>54.633423814132</v>
       </c>
     </row>
     <row r="2749" spans="1:2">
@@ -22343,7 +22343,7 @@
         <v>2750</v>
       </c>
       <c r="B2750">
-        <v>40.9499370190338</v>
+        <v>40.94993701903379</v>
       </c>
     </row>
     <row r="2751" spans="1:2">
@@ -22431,7 +22431,7 @@
         <v>2761</v>
       </c>
       <c r="B2761">
-        <v>7.935777584871908</v>
+        <v>7.935777584871907</v>
       </c>
     </row>
     <row r="2762" spans="1:2">
@@ -22447,7 +22447,7 @@
         <v>2763</v>
       </c>
       <c r="B2763">
-        <v>7.372700198291866</v>
+        <v>7.372700198291865</v>
       </c>
     </row>
     <row r="2764" spans="1:2">
@@ -22455,7 +22455,7 @@
         <v>2764</v>
       </c>
       <c r="B2764">
-        <v>7.374224167692905</v>
+        <v>7.374224167692904</v>
       </c>
     </row>
     <row r="2765" spans="1:2">
@@ -22551,7 +22551,7 @@
         <v>2776</v>
       </c>
       <c r="B2776">
-        <v>82.71988680424204</v>
+        <v>82.71988680424202</v>
       </c>
     </row>
     <row r="2777" spans="1:2">
@@ -22583,7 +22583,7 @@
         <v>2780</v>
       </c>
       <c r="B2780">
-        <v>13.92318959761933</v>
+        <v>13.92318959761932</v>
       </c>
     </row>
     <row r="2781" spans="1:2">
@@ -22863,7 +22863,7 @@
         <v>2815</v>
       </c>
       <c r="B2815">
-        <v>34.67997521791298</v>
+        <v>34.67997521791297</v>
       </c>
     </row>
     <row r="2816" spans="1:2">
@@ -22911,7 +22911,7 @@
         <v>2821</v>
       </c>
       <c r="B2821">
-        <v>80.95471993838476</v>
+        <v>80.95471993838474</v>
       </c>
     </row>
     <row r="2822" spans="1:2">
@@ -22935,7 +22935,7 @@
         <v>2824</v>
       </c>
       <c r="B2824">
-        <v>54.57744724574769</v>
+        <v>54.57744724574768</v>
       </c>
     </row>
     <row r="2825" spans="1:2">
@@ -23119,7 +23119,7 @@
         <v>2847</v>
       </c>
       <c r="B2847">
-        <v>69.23744674166551</v>
+        <v>69.23744674166549</v>
       </c>
     </row>
     <row r="2848" spans="1:2">
@@ -23159,7 +23159,7 @@
         <v>2852</v>
       </c>
       <c r="B2852">
-        <v>19.25538268923158</v>
+        <v>19.25538268923157</v>
       </c>
     </row>
     <row r="2853" spans="1:2">
@@ -23263,7 +23263,7 @@
         <v>2865</v>
       </c>
       <c r="B2865">
-        <v>60.98749700334864</v>
+        <v>60.98749700334863</v>
       </c>
     </row>
     <row r="2866" spans="1:2">
@@ -23343,7 +23343,7 @@
         <v>2875</v>
       </c>
       <c r="B2875">
-        <v>57.11720086678691</v>
+        <v>57.1172008667869</v>
       </c>
     </row>
     <row r="2876" spans="1:2">
@@ -23367,7 +23367,7 @@
         <v>2878</v>
       </c>
       <c r="B2878">
-        <v>28.47179279174197</v>
+        <v>28.47179279174196</v>
       </c>
     </row>
     <row r="2879" spans="1:2">
@@ -23447,7 +23447,7 @@
         <v>2888</v>
       </c>
       <c r="B2888">
-        <v>38.18832862172794</v>
+        <v>38.18832862172793</v>
       </c>
     </row>
     <row r="2889" spans="1:2">
@@ -23471,7 +23471,7 @@
         <v>2891</v>
       </c>
       <c r="B2891">
-        <v>58.91607090209025</v>
+        <v>58.91607090209024</v>
       </c>
     </row>
     <row r="2892" spans="1:2">
@@ -23551,7 +23551,7 @@
         <v>2901</v>
       </c>
       <c r="B2901">
-        <v>37.88001788905621</v>
+        <v>37.8800178890562</v>
       </c>
     </row>
     <row r="2902" spans="1:2">
@@ -23615,7 +23615,7 @@
         <v>2909</v>
       </c>
       <c r="B2909">
-        <v>95.31080476721075</v>
+        <v>95.31080476721074</v>
       </c>
     </row>
     <row r="2910" spans="1:2">
@@ -23791,7 +23791,7 @@
         <v>2931</v>
       </c>
       <c r="B2931">
-        <v>37.02659502447437</v>
+        <v>37.02659502447436</v>
       </c>
     </row>
     <row r="2932" spans="1:2">
@@ -23863,7 +23863,7 @@
         <v>2940</v>
       </c>
       <c r="B2940">
-        <v>55.53520340009297</v>
+        <v>55.53520340009296</v>
       </c>
     </row>
     <row r="2941" spans="1:2">
@@ -23871,7 +23871,7 @@
         <v>2941</v>
       </c>
       <c r="B2941">
-        <v>59.37443400655659</v>
+        <v>59.37443400655658</v>
       </c>
     </row>
     <row r="2942" spans="1:2">
@@ -23887,7 +23887,7 @@
         <v>2943</v>
       </c>
       <c r="B2943">
-        <v>85.47259170339336</v>
+        <v>85.47259170339335</v>
       </c>
     </row>
     <row r="2944" spans="1:2">
@@ -23895,7 +23895,7 @@
         <v>2944</v>
       </c>
       <c r="B2944">
-        <v>56.60491269120688</v>
+        <v>56.60491269120687</v>
       </c>
     </row>
     <row r="2945" spans="1:2">
@@ -24047,7 +24047,7 @@
         <v>2963</v>
       </c>
       <c r="B2963">
-        <v>37.63032136411674</v>
+        <v>37.63032136411673</v>
       </c>
     </row>
     <row r="2964" spans="1:2">
@@ -24231,7 +24231,7 @@
         <v>2986</v>
       </c>
       <c r="B2986">
-        <v>38.49898392270897</v>
+        <v>38.49898392270896</v>
       </c>
     </row>
     <row r="2987" spans="1:2">
@@ -24247,7 +24247,7 @@
         <v>2988</v>
       </c>
       <c r="B2988">
-        <v>55.53491032905431</v>
+        <v>55.5349103290543</v>
       </c>
     </row>
     <row r="2989" spans="1:2">
@@ -24319,7 +24319,7 @@
         <v>2997</v>
       </c>
       <c r="B2997">
-        <v>19.09395916113691</v>
+        <v>19.0939591611369</v>
       </c>
     </row>
     <row r="2998" spans="1:2">
@@ -24351,7 +24351,7 @@
         <v>3001</v>
       </c>
       <c r="B3001">
-        <v>7.422756731695223</v>
+        <v>7.422756731695222</v>
       </c>
     </row>
     <row r="3002" spans="1:2">
@@ -24391,7 +24391,7 @@
         <v>3006</v>
       </c>
       <c r="B3006">
-        <v>18.32851622236121</v>
+        <v>18.3285162223612</v>
       </c>
     </row>
     <row r="3007" spans="1:2">
@@ -24431,7 +24431,7 @@
         <v>3011</v>
       </c>
       <c r="B3011">
-        <v>73.32402930475931</v>
+        <v>73.32402930475929</v>
       </c>
     </row>
     <row r="3012" spans="1:2">
@@ -24487,7 +24487,7 @@
         <v>3018</v>
       </c>
       <c r="B3018">
-        <v>78.9345812688921</v>
+        <v>78.93458126889209</v>
       </c>
     </row>
     <row r="3019" spans="1:2">
@@ -24519,7 +24519,7 @@
         <v>3022</v>
       </c>
       <c r="B3022">
-        <v>76.23363857658914</v>
+        <v>76.23363857658913</v>
       </c>
     </row>
     <row r="3023" spans="1:2">
@@ -24543,7 +24543,7 @@
         <v>3025</v>
       </c>
       <c r="B3025">
-        <v>90.90565398509209</v>
+        <v>90.90565398509206</v>
       </c>
     </row>
     <row r="3026" spans="1:2">
@@ -24847,7 +24847,7 @@
         <v>3063</v>
       </c>
       <c r="B3063">
-        <v>140.3427231340314</v>
+        <v>140.3427231340313</v>
       </c>
     </row>
     <row r="3064" spans="1:2">
@@ -24863,7 +24863,7 @@
         <v>3065</v>
       </c>
       <c r="B3065">
-        <v>110.6214219689568</v>
+        <v>110.6214219689567</v>
       </c>
     </row>
     <row r="3066" spans="1:2">
@@ -24879,7 +24879,7 @@
         <v>3067</v>
       </c>
       <c r="B3067">
-        <v>86.57992545445062</v>
+        <v>86.5799254544506</v>
       </c>
     </row>
     <row r="3068" spans="1:2">
@@ -24911,7 +24911,7 @@
         <v>3071</v>
       </c>
       <c r="B3071">
-        <v>55.31598626317428</v>
+        <v>55.31598626317427</v>
       </c>
     </row>
     <row r="3072" spans="1:2">
@@ -24983,7 +24983,7 @@
         <v>3080</v>
       </c>
       <c r="B3080">
-        <v>73.22467822265311</v>
+        <v>73.2246782226531</v>
       </c>
     </row>
     <row r="3081" spans="1:2">
@@ -24999,7 +24999,7 @@
         <v>3082</v>
       </c>
       <c r="B3082">
-        <v>73.30410047413034</v>
+        <v>73.30410047413032</v>
       </c>
     </row>
     <row r="3083" spans="1:2">
@@ -25063,7 +25063,7 @@
         <v>3090</v>
       </c>
       <c r="B3090">
-        <v>138.7987369810518</v>
+        <v>138.7987369810517</v>
       </c>
     </row>
     <row r="3091" spans="1:2">
@@ -25207,7 +25207,7 @@
         <v>3108</v>
       </c>
       <c r="B3108">
-        <v>92.48794452282468</v>
+        <v>92.48794452282466</v>
       </c>
     </row>
     <row r="3109" spans="1:2">
@@ -25279,7 +25279,7 @@
         <v>3117</v>
       </c>
       <c r="B3117">
-        <v>57.5069853482065</v>
+        <v>57.50698534820649</v>
       </c>
     </row>
     <row r="3118" spans="1:2">
@@ -25319,7 +25319,7 @@
         <v>3122</v>
       </c>
       <c r="B3122">
-        <v>15.18541725402988</v>
+        <v>15.18541725402987</v>
       </c>
     </row>
     <row r="3123" spans="1:2">
@@ -25447,7 +25447,7 @@
         <v>3138</v>
       </c>
       <c r="B3138">
-        <v>77.82528101116543</v>
+        <v>77.82528101116542</v>
       </c>
     </row>
     <row r="3139" spans="1:2">
@@ -25615,7 +25615,7 @@
         <v>3159</v>
       </c>
       <c r="B3159">
-        <v>157.4433303186093</v>
+        <v>157.4433303186092</v>
       </c>
     </row>
     <row r="3160" spans="1:2">
@@ -25623,7 +25623,7 @@
         <v>3160</v>
       </c>
       <c r="B3160">
-        <v>148.5878958144181</v>
+        <v>148.587895814418</v>
       </c>
     </row>
     <row r="3161" spans="1:2">
@@ -25887,7 +25887,7 @@
         <v>3193</v>
       </c>
       <c r="B3193">
-        <v>19.11570503220558</v>
+        <v>19.11570503220557</v>
       </c>
     </row>
     <row r="3194" spans="1:2">
@@ -25975,7 +25975,7 @@
         <v>3204</v>
       </c>
       <c r="B3204">
-        <v>55.61140187014492</v>
+        <v>55.61140187014491</v>
       </c>
     </row>
     <row r="3205" spans="1:2">
@@ -26023,7 +26023,7 @@
         <v>3210</v>
       </c>
       <c r="B3210">
-        <v>29.42990063133364</v>
+        <v>29.42990063133363</v>
       </c>
     </row>
     <row r="3211" spans="1:2">
@@ -26143,7 +26143,7 @@
         <v>3225</v>
       </c>
       <c r="B3225">
-        <v>47.85410454781777</v>
+        <v>47.85410454781776</v>
       </c>
     </row>
     <row r="3226" spans="1:2">
@@ -26151,7 +26151,7 @@
         <v>3226</v>
       </c>
       <c r="B3226">
-        <v>55.46867627431684</v>
+        <v>55.46867627431683</v>
       </c>
     </row>
     <row r="3227" spans="1:2">
@@ -26215,7 +26215,7 @@
         <v>3234</v>
       </c>
       <c r="B3234">
-        <v>83.29020304547701</v>
+        <v>83.290203045477</v>
       </c>
     </row>
     <row r="3235" spans="1:2">
@@ -26255,7 +26255,7 @@
         <v>3239</v>
       </c>
       <c r="B3239">
-        <v>7.326629431014302</v>
+        <v>7.326629431014301</v>
       </c>
     </row>
     <row r="3240" spans="1:2">
@@ -26263,7 +26263,7 @@
         <v>3240</v>
       </c>
       <c r="B3240">
-        <v>7.372700198291866</v>
+        <v>7.372700198291865</v>
       </c>
     </row>
     <row r="3241" spans="1:2">
@@ -26383,7 +26383,7 @@
         <v>3255</v>
       </c>
       <c r="B3255">
-        <v>123.8484213142361</v>
+        <v>123.848421314236</v>
       </c>
     </row>
     <row r="3256" spans="1:2">
@@ -26455,7 +26455,7 @@
         <v>3264</v>
       </c>
       <c r="B3264">
-        <v>75.51239075044357</v>
+        <v>75.51239075044356</v>
       </c>
     </row>
     <row r="3265" spans="1:2">
@@ -26487,7 +26487,7 @@
         <v>3268</v>
       </c>
       <c r="B3268">
-        <v>78.38683149763405</v>
+        <v>78.38683149763403</v>
       </c>
     </row>
     <row r="3269" spans="1:2">
@@ -26751,7 +26751,7 @@
         <v>3301</v>
       </c>
       <c r="B3301">
-        <v>16.12857847064982</v>
+        <v>16.12857847064981</v>
       </c>
     </row>
     <row r="3302" spans="1:2">
@@ -26799,7 +26799,7 @@
         <v>3307</v>
       </c>
       <c r="B3307">
-        <v>6.726537172251332</v>
+        <v>6.726537172251331</v>
       </c>
     </row>
     <row r="3308" spans="1:2">
@@ -27127,7 +27127,7 @@
         <v>3348</v>
       </c>
       <c r="B3348">
-        <v>38.47114217403614</v>
+        <v>38.47114217403613</v>
       </c>
     </row>
     <row r="3349" spans="1:2">
@@ -27167,7 +27167,7 @@
         <v>3353</v>
       </c>
       <c r="B3353">
-        <v>38.57782003210887</v>
+        <v>38.57782003210886</v>
       </c>
     </row>
     <row r="3354" spans="1:2">
@@ -27175,7 +27175,7 @@
         <v>3354</v>
       </c>
       <c r="B3354">
-        <v>28.32795352596698</v>
+        <v>28.32795352596697</v>
       </c>
     </row>
     <row r="3355" spans="1:2">
@@ -27359,7 +27359,7 @@
         <v>3377</v>
       </c>
       <c r="B3377">
-        <v>29.20112937855459</v>
+        <v>29.20112937855458</v>
       </c>
     </row>
     <row r="3378" spans="1:2">
@@ -27503,7 +27503,7 @@
         <v>3395</v>
       </c>
       <c r="B3395">
-        <v>56.42174329204354</v>
+        <v>56.42174329204353</v>
       </c>
     </row>
     <row r="3396" spans="1:2">
@@ -27519,7 +27519,7 @@
         <v>3397</v>
       </c>
       <c r="B3397">
-        <v>55.64217432920436</v>
+        <v>55.64217432920435</v>
       </c>
     </row>
     <row r="3398" spans="1:2">
@@ -27527,7 +27527,7 @@
         <v>3398</v>
       </c>
       <c r="B3398">
-        <v>59.44301262960335</v>
+        <v>59.44301262960334</v>
       </c>
     </row>
     <row r="3399" spans="1:2">
@@ -27871,7 +27871,7 @@
         <v>3441</v>
       </c>
       <c r="B3441">
-        <v>101.1525897808474</v>
+        <v>101.1525897808473</v>
       </c>
     </row>
     <row r="3442" spans="1:2">
@@ -27935,7 +27935,7 @@
         <v>3449</v>
       </c>
       <c r="B3449">
-        <v>130.623432436282</v>
+        <v>130.6234324362819</v>
       </c>
     </row>
     <row r="3450" spans="1:2">
@@ -27943,7 +27943,7 @@
         <v>3450</v>
       </c>
       <c r="B3450">
-        <v>119.6437897367695</v>
+        <v>119.6437897367694</v>
       </c>
     </row>
     <row r="3451" spans="1:2">
@@ -28071,7 +28071,7 @@
         <v>3466</v>
       </c>
       <c r="B3466">
-        <v>123.2537215625845</v>
+        <v>123.2537215625844</v>
       </c>
     </row>
     <row r="3467" spans="1:2">
@@ -28319,7 +28319,7 @@
         <v>3497</v>
       </c>
       <c r="B3497">
-        <v>148.4522039235179</v>
+        <v>148.4522039235178</v>
       </c>
     </row>
     <row r="3498" spans="1:2">
@@ -28351,7 +28351,7 @@
         <v>3501</v>
       </c>
       <c r="B3501">
-        <v>117.9772119683179</v>
+        <v>117.9772119683178</v>
       </c>
     </row>
     <row r="3502" spans="1:2">
@@ -28367,7 +28367,7 @@
         <v>3503</v>
       </c>
       <c r="B3503">
-        <v>98.66089981014861</v>
+        <v>98.66089981014858</v>
       </c>
     </row>
     <row r="3504" spans="1:2">
@@ -28415,7 +28415,7 @@
         <v>3509</v>
       </c>
       <c r="B3509">
-        <v>103.5833209755046</v>
+        <v>103.5833209755045</v>
       </c>
     </row>
     <row r="3510" spans="1:2">
@@ -28511,7 +28511,7 @@
         <v>3521</v>
       </c>
       <c r="B3521">
-        <v>153.266657718231</v>
+        <v>153.2666577182309</v>
       </c>
     </row>
     <row r="3522" spans="1:2">
@@ -28663,7 +28663,7 @@
         <v>3540</v>
       </c>
       <c r="B3540">
-        <v>147.6720488186014</v>
+        <v>147.6720488186013</v>
       </c>
     </row>
     <row r="3541" spans="1:2">
@@ -28823,7 +28823,7 @@
         <v>3560</v>
       </c>
       <c r="B3560">
-        <v>151.3181456105872</v>
+        <v>151.3181456105871</v>
       </c>
     </row>
     <row r="3561" spans="1:2">
@@ -28887,7 +28887,7 @@
         <v>3568</v>
       </c>
       <c r="B3568">
-        <v>167.67901218648</v>
+        <v>167.6790121864799</v>
       </c>
     </row>
     <row r="3569" spans="1:2">
@@ -28983,7 +28983,7 @@
         <v>3580</v>
       </c>
       <c r="B3580">
-        <v>52.64610910096943</v>
+        <v>52.64610910096942</v>
       </c>
     </row>
     <row r="3581" spans="1:2">
@@ -29503,7 +29503,7 @@
         <v>3645</v>
       </c>
       <c r="B3645">
-        <v>97.25415882457413</v>
+        <v>97.25415882457412</v>
       </c>
     </row>
     <row r="3646" spans="1:2">
@@ -29567,7 +29567,7 @@
         <v>3653</v>
       </c>
       <c r="B3653">
-        <v>45.53825720031582</v>
+        <v>45.53825720031581</v>
       </c>
     </row>
     <row r="3654" spans="1:2">
@@ -29575,7 +29575,7 @@
         <v>3654</v>
       </c>
       <c r="B3654">
-        <v>36.93486378937337</v>
+        <v>36.93486378937336</v>
       </c>
     </row>
     <row r="3655" spans="1:2">
@@ -29671,7 +29671,7 @@
         <v>3666</v>
       </c>
       <c r="B3666">
-        <v>72.76631511818677</v>
+        <v>72.76631511818675</v>
       </c>
     </row>
     <row r="3667" spans="1:2">
@@ -29791,7 +29791,7 @@
         <v>3681</v>
       </c>
       <c r="B3681">
-        <v>59.78737110003043</v>
+        <v>59.78737110003042</v>
       </c>
     </row>
     <row r="3682" spans="1:2">
@@ -29839,7 +29839,7 @@
         <v>3687</v>
       </c>
       <c r="B3687">
-        <v>85.56531351860504</v>
+        <v>85.56531351860502</v>
       </c>
     </row>
     <row r="3688" spans="1:2">
@@ -29863,7 +29863,7 @@
         <v>3690</v>
       </c>
       <c r="B3690">
-        <v>78.66436977124634</v>
+        <v>78.66436977124633</v>
       </c>
     </row>
     <row r="3691" spans="1:2">
@@ -30015,7 +30015,7 @@
         <v>3709</v>
       </c>
       <c r="B3709">
-        <v>132.4590535798335</v>
+        <v>132.4590535798334</v>
       </c>
     </row>
     <row r="3710" spans="1:2">
@@ -30039,7 +30039,7 @@
         <v>3712</v>
       </c>
       <c r="B3712">
-        <v>126.2668728323734</v>
+        <v>126.2668728323733</v>
       </c>
     </row>
     <row r="3713" spans="1:2">
@@ -30079,7 +30079,7 @@
         <v>3717</v>
       </c>
       <c r="B3717">
-        <v>63.05599239422041</v>
+        <v>63.0559923942204</v>
       </c>
     </row>
     <row r="3718" spans="1:2">
@@ -30151,7 +30151,7 @@
         <v>3726</v>
       </c>
       <c r="B3726">
-        <v>77.86897497231945</v>
+        <v>77.86897497231944</v>
       </c>
     </row>
     <row r="3727" spans="1:2">
@@ -30199,7 +30199,7 @@
         <v>3732</v>
       </c>
       <c r="B3732">
-        <v>152.5851796320318</v>
+        <v>152.5851796320317</v>
       </c>
     </row>
     <row r="3733" spans="1:2">
@@ -30223,7 +30223,7 @@
         <v>3735</v>
       </c>
       <c r="B3735">
-        <v>149.3391248078187</v>
+        <v>149.3391248078186</v>
       </c>
     </row>
     <row r="3736" spans="1:2">
@@ -30287,7 +30287,7 @@
         <v>3743</v>
       </c>
       <c r="B3743">
-        <v>97.24946968795555</v>
+        <v>97.24946968795554</v>
       </c>
     </row>
     <row r="3744" spans="1:2">
@@ -30719,7 +30719,7 @@
         <v>3797</v>
       </c>
       <c r="B3797">
-        <v>127.5874509325814</v>
+        <v>127.5874509325813</v>
       </c>
     </row>
     <row r="3798" spans="1:2">
@@ -31143,7 +31143,7 @@
         <v>3850</v>
       </c>
       <c r="B3850">
-        <v>86.42694237226939</v>
+        <v>86.42694237226938</v>
       </c>
     </row>
     <row r="3851" spans="1:2">
@@ -31151,7 +31151,7 @@
         <v>3851</v>
       </c>
       <c r="B3851">
-        <v>90.80630290298588</v>
+        <v>90.80630290298586</v>
       </c>
     </row>
     <row r="3852" spans="1:2">
@@ -31295,7 +31295,7 @@
         <v>3869</v>
       </c>
       <c r="B3869">
-        <v>80.51628566454738</v>
+        <v>80.51628566454737</v>
       </c>
     </row>
     <row r="3870" spans="1:2">
@@ -31319,7 +31319,7 @@
         <v>3872</v>
       </c>
       <c r="B3872">
-        <v>92.18402985573286</v>
+        <v>92.18402985573285</v>
       </c>
     </row>
     <row r="3873" spans="1:2">
@@ -31535,7 +31535,7 @@
         <v>3899</v>
       </c>
       <c r="B3899">
-        <v>160.2472874810017</v>
+        <v>160.2472874810016</v>
       </c>
     </row>
     <row r="3900" spans="1:2">
@@ -31943,7 +31943,7 @@
         <v>3950</v>
       </c>
       <c r="B3950">
-        <v>227.276883552912</v>
+        <v>227.2768835529119</v>
       </c>
     </row>
     <row r="3951" spans="1:2">
@@ -32119,7 +32119,7 @@
         <v>3972</v>
       </c>
       <c r="B3972">
-        <v>189.5569410651726</v>
+        <v>189.5569410651725</v>
       </c>
     </row>
     <row r="3973" spans="1:2">
@@ -32175,7 +32175,7 @@
         <v>3979</v>
       </c>
       <c r="B3979">
-        <v>204.0111460777424</v>
+        <v>204.0111460777423</v>
       </c>
     </row>
     <row r="3980" spans="1:2">
@@ -32295,7 +32295,7 @@
         <v>3994</v>
       </c>
       <c r="B3994">
-        <v>212.5543720044477</v>
+        <v>212.5543720044476</v>
       </c>
     </row>
     <row r="3995" spans="1:2">
@@ -32455,7 +32455,7 @@
         <v>4014</v>
       </c>
       <c r="B4014">
-        <v>144.6571742911052</v>
+        <v>144.6571742911051</v>
       </c>
     </row>
     <row r="4015" spans="1:2">
@@ -32871,7 +32871,7 @@
         <v>4066</v>
       </c>
       <c r="B4066">
-        <v>198.9047935285226</v>
+        <v>198.9047935285225</v>
       </c>
     </row>
     <row r="4067" spans="1:2">
@@ -32895,7 +32895,7 @@
         <v>4069</v>
       </c>
       <c r="B4069">
-        <v>213.893501501403</v>
+        <v>213.8935015014029</v>
       </c>
     </row>
     <row r="4070" spans="1:2">
@@ -32903,7 +32903,7 @@
         <v>4070</v>
       </c>
       <c r="B4070">
-        <v>229.8787682341474</v>
+        <v>229.8787682341473</v>
       </c>
     </row>
     <row r="4071" spans="1:2">
@@ -33079,7 +33079,7 @@
         <v>4092</v>
       </c>
       <c r="B4092">
-        <v>211.6307293190026</v>
+        <v>211.6307293190025</v>
       </c>
     </row>
     <row r="4093" spans="1:2">
@@ -33087,7 +33087,7 @@
         <v>4093</v>
       </c>
       <c r="B4093">
-        <v>217.0337576806593</v>
+        <v>217.0337576806592</v>
       </c>
     </row>
     <row r="4094" spans="1:2">
@@ -33119,7 +33119,7 @@
         <v>4097</v>
       </c>
       <c r="B4097">
-        <v>204.1994735271862</v>
+        <v>204.1994735271861</v>
       </c>
     </row>
     <row r="4098" spans="1:2">
@@ -33311,7 +33311,7 @@
         <v>4121</v>
       </c>
       <c r="B4121">
-        <v>232.155285448261</v>
+        <v>232.1552854482609</v>
       </c>
     </row>
     <row r="4122" spans="1:2">
@@ -33439,7 +33439,7 @@
         <v>4137</v>
       </c>
       <c r="B4137">
-        <v>154.2414412999225</v>
+        <v>154.2414412999224</v>
       </c>
     </row>
     <row r="4138" spans="1:2">
@@ -34031,7 +34031,7 @@
         <v>4211</v>
       </c>
       <c r="B4211">
-        <v>190.3989927734544</v>
+        <v>190.3989927734543</v>
       </c>
     </row>
     <row r="4212" spans="1:2">
@@ -34063,7 +34063,7 @@
         <v>4215</v>
       </c>
       <c r="B4215">
-        <v>172.3030577273748</v>
+        <v>172.3030577273747</v>
       </c>
     </row>
     <row r="4216" spans="1:2">
@@ -34399,7 +34399,7 @@
         <v>4257</v>
       </c>
       <c r="B4257">
-        <v>179.048234217685</v>
+        <v>179.0482342176849</v>
       </c>
     </row>
     <row r="4258" spans="1:2">
@@ -34671,7 +34671,7 @@
         <v>4291</v>
       </c>
       <c r="B4291">
-        <v>152.6937624518558</v>
+        <v>152.6937624518557</v>
       </c>
     </row>
     <row r="4292" spans="1:2">
@@ -34727,7 +34727,7 @@
         <v>4298</v>
       </c>
       <c r="B4298">
-        <v>144.6933333958552</v>
+        <v>144.6933333958551</v>
       </c>
     </row>
     <row r="4299" spans="1:2">
@@ -35119,7 +35119,7 @@
         <v>4347</v>
       </c>
       <c r="B4347">
-        <v>140.3358945788306</v>
+        <v>140.3358945788305</v>
       </c>
     </row>
     <row r="4348" spans="1:2">
@@ -35263,7 +35263,7 @@
         <v>4365</v>
       </c>
       <c r="B4365">
-        <v>151.386050170245</v>
+        <v>151.3860501702449</v>
       </c>
     </row>
     <row r="4366" spans="1:2">
@@ -35271,7 +35271,7 @@
         <v>4366</v>
       </c>
       <c r="B4366">
-        <v>143.364695842084</v>
+        <v>143.3646958420839</v>
       </c>
     </row>
     <row r="4367" spans="1:2">
@@ -35391,7 +35391,7 @@
         <v>4381</v>
       </c>
       <c r="B4381">
-        <v>257.2193654308643</v>
+        <v>257.2193654308642</v>
       </c>
     </row>
     <row r="4382" spans="1:2">
@@ -35431,7 +35431,7 @@
         <v>4386</v>
       </c>
       <c r="B4386">
-        <v>317.2007495584885</v>
+        <v>317.2007495584884</v>
       </c>
     </row>
     <row r="4387" spans="1:2">
@@ -35471,7 +35471,7 @@
         <v>4391</v>
       </c>
       <c r="B4391">
-        <v>181.4110315455805</v>
+        <v>181.4110315455804</v>
       </c>
     </row>
     <row r="4392" spans="1:2">
@@ -35687,7 +35687,7 @@
         <v>4418</v>
       </c>
       <c r="B4418">
-        <v>150.1186058493463</v>
+        <v>150.1186058493462</v>
       </c>
     </row>
     <row r="4419" spans="1:2">
@@ -35975,7 +35975,7 @@
         <v>4454</v>
       </c>
       <c r="B4454">
-        <v>214.7545735200939</v>
+        <v>214.7545735200938</v>
       </c>
     </row>
     <row r="4455" spans="1:2">
@@ -36031,7 +36031,7 @@
         <v>4461</v>
       </c>
       <c r="B4461">
-        <v>178.6321612640975</v>
+        <v>178.6321612640974</v>
       </c>
     </row>
     <row r="4462" spans="1:2">
@@ -36087,7 +36087,7 @@
         <v>4468</v>
       </c>
       <c r="B4468">
-        <v>145.1331157964704</v>
+        <v>145.1331157964703</v>
       </c>
     </row>
     <row r="4469" spans="1:2">
@@ -36095,7 +36095,7 @@
         <v>4469</v>
       </c>
       <c r="B4469">
-        <v>123.9015550935454</v>
+        <v>123.9015550935453</v>
       </c>
     </row>
     <row r="4470" spans="1:2">
@@ -36223,7 +36223,7 @@
         <v>4485</v>
       </c>
       <c r="B4485">
-        <v>169.5500070043979</v>
+        <v>169.5500070043978</v>
       </c>
     </row>
     <row r="4486" spans="1:2">
@@ -36311,7 +36311,7 @@
         <v>4496</v>
       </c>
       <c r="B4496">
-        <v>190.742794408908</v>
+        <v>190.7427944089079</v>
       </c>
     </row>
     <row r="4497" spans="1:2">
@@ -36367,7 +36367,7 @@
         <v>4503</v>
       </c>
       <c r="B4503">
-        <v>220.4187281771978</v>
+        <v>220.4187281771977</v>
       </c>
     </row>
     <row r="4504" spans="1:2">
@@ -36799,7 +36799,7 @@
         <v>4557</v>
       </c>
       <c r="B4557">
-        <v>124.8554134030765</v>
+        <v>124.8554134030764</v>
       </c>
     </row>
     <row r="4558" spans="1:2">
@@ -37007,7 +37007,7 @@
         <v>4583</v>
       </c>
       <c r="B4583">
-        <v>130.7368450668232</v>
+        <v>130.7368450668231</v>
       </c>
     </row>
     <row r="4584" spans="1:2">
@@ -37095,7 +37095,7 @@
         <v>4594</v>
       </c>
       <c r="B4594">
-        <v>167.7823197276081</v>
+        <v>167.782319727608</v>
       </c>
     </row>
     <row r="4595" spans="1:2">
@@ -37111,7 +37111,7 @@
         <v>4596</v>
       </c>
       <c r="B4596">
-        <v>170.1685627385965</v>
+        <v>170.1685627385964</v>
       </c>
     </row>
     <row r="4597" spans="1:2">
@@ -37279,7 +37279,7 @@
         <v>4617</v>
       </c>
       <c r="B4617">
-        <v>163.3793669782794</v>
+        <v>163.3793669782793</v>
       </c>
     </row>
     <row r="4618" spans="1:2">
@@ -37551,7 +37551,7 @@
         <v>4651</v>
       </c>
       <c r="B4651">
-        <v>166.7501821436506</v>
+        <v>166.7501821436505</v>
       </c>
     </row>
     <row r="4652" spans="1:2">
@@ -37559,7 +37559,7 @@
         <v>4652</v>
       </c>
       <c r="B4652">
-        <v>153.7032456445248</v>
+        <v>153.7032456445247</v>
       </c>
     </row>
     <row r="4653" spans="1:2">
@@ -37719,7 +37719,7 @@
         <v>4672</v>
       </c>
       <c r="B4672">
-        <v>150.3944150038305</v>
+        <v>150.3944150038304</v>
       </c>
     </row>
     <row r="4673" spans="1:2">
@@ -37831,7 +37831,7 @@
         <v>4686</v>
       </c>
       <c r="B4686">
-        <v>96.3195552822831</v>
+        <v>96.31955528228308</v>
       </c>
     </row>
     <row r="4687" spans="1:2">
@@ -37855,7 +37855,7 @@
         <v>4689</v>
       </c>
       <c r="B4689">
-        <v>114.2348091023176</v>
+        <v>114.2348091023175</v>
       </c>
     </row>
     <row r="4690" spans="1:2">
@@ -37879,7 +37879,7 @@
         <v>4692</v>
       </c>
       <c r="B4692">
-        <v>125.1675633663547</v>
+        <v>125.1675633663546</v>
       </c>
     </row>
     <row r="4693" spans="1:2">
@@ -37991,7 +37991,7 @@
         <v>4706</v>
       </c>
       <c r="B4706">
-        <v>80.5063212492329</v>
+        <v>80.50632124923288</v>
       </c>
     </row>
     <row r="4707" spans="1:2">
@@ -38471,7 +38471,7 @@
         <v>4766</v>
       </c>
       <c r="B4766">
-        <v>227.2182693451797</v>
+        <v>227.2182693451796</v>
       </c>
     </row>
     <row r="4767" spans="1:2">
@@ -38751,7 +38751,7 @@
         <v>4801</v>
       </c>
       <c r="B4801">
-        <v>195.7366076792819</v>
+        <v>195.7366076792818</v>
       </c>
     </row>
     <row r="4802" spans="1:2">
@@ -39311,7 +39311,7 @@
         <v>4871</v>
       </c>
       <c r="B4871">
-        <v>177.1199733188127</v>
+        <v>177.1199733188126</v>
       </c>
     </row>
     <row r="4872" spans="1:2">
@@ -39615,7 +39615,7 @@
         <v>4909</v>
       </c>
       <c r="B4909">
-        <v>202.8195192345454</v>
+        <v>202.8195192345453</v>
       </c>
     </row>
     <row r="4910" spans="1:2">
@@ -39655,7 +39655,7 @@
         <v>4914</v>
       </c>
       <c r="B4914">
-        <v>212.4274136304996</v>
+        <v>212.4274136304995</v>
       </c>
     </row>
     <row r="4915" spans="1:2">
@@ -39695,7 +39695,7 @@
         <v>4919</v>
       </c>
       <c r="B4919">
-        <v>174.1496690348761</v>
+        <v>174.149669034876</v>
       </c>
     </row>
     <row r="4920" spans="1:2">
@@ -39735,7 +39735,7 @@
         <v>4924</v>
       </c>
       <c r="B4924">
-        <v>157.3167236299076</v>
+        <v>157.3167236299075</v>
       </c>
     </row>
     <row r="4925" spans="1:2">
@@ -39743,7 +39743,7 @@
         <v>4925</v>
       </c>
       <c r="B4925">
-        <v>156.3570038996033</v>
+        <v>156.3570038996032</v>
       </c>
     </row>
     <row r="4926" spans="1:2">
@@ -39847,7 +39847,7 @@
         <v>4938</v>
       </c>
       <c r="B4938">
-        <v>212.2462078072953</v>
+        <v>212.2462078072952</v>
       </c>
     </row>
     <row r="4939" spans="1:2">
@@ -39959,7 +39959,7 @@
         <v>4952</v>
       </c>
       <c r="B4952">
-        <v>243.2179551730263</v>
+        <v>243.2179551730262</v>
       </c>
     </row>
     <row r="4953" spans="1:2">
@@ -40079,7 +40079,7 @@
         <v>4967</v>
       </c>
       <c r="B4967">
-        <v>160.251830082101</v>
+        <v>160.2518300821009</v>
       </c>
     </row>
     <row r="4968" spans="1:2">
@@ -40367,7 +40367,7 @@
         <v>5003</v>
       </c>
       <c r="B5003">
-        <v>133.2120996136738</v>
+        <v>133.2120996136737</v>
       </c>
     </row>
     <row r="5004" spans="1:2">
@@ -40415,7 +40415,7 @@
         <v>5009</v>
       </c>
       <c r="B5009">
-        <v>135.5323137196518</v>
+        <v>135.5323137196517</v>
       </c>
     </row>
     <row r="5010" spans="1:2">
@@ -40831,7 +40831,7 @@
         <v>5061</v>
       </c>
       <c r="B5061">
-        <v>141.4526710787535</v>
+        <v>141.4526710787534</v>
       </c>
     </row>
     <row r="5062" spans="1:2">
@@ -40847,7 +40847,7 @@
         <v>5063</v>
       </c>
       <c r="B5063">
-        <v>138.2221285046168</v>
+        <v>138.2221285046167</v>
       </c>
     </row>
     <row r="5064" spans="1:2">
@@ -41103,7 +41103,7 @@
         <v>5095</v>
       </c>
       <c r="B5095">
-        <v>179.7975875564382</v>
+        <v>179.7975875564381</v>
       </c>
     </row>
     <row r="5096" spans="1:2">
@@ -41111,7 +41111,7 @@
         <v>5096</v>
       </c>
       <c r="B5096">
-        <v>193.3188302245335</v>
+        <v>193.3188302245334</v>
       </c>
     </row>
     <row r="5097" spans="1:2">
@@ -41431,7 +41431,7 @@
         <v>5136</v>
       </c>
       <c r="B5136">
-        <v>159.4214426011579</v>
+        <v>159.4214426011578</v>
       </c>
     </row>
     <row r="5137" spans="1:2">
@@ -41871,7 +41871,7 @@
         <v>5191</v>
       </c>
       <c r="B5191">
-        <v>169.7737960495197</v>
+        <v>169.7737960495196</v>
       </c>
     </row>
     <row r="5192" spans="1:2">
@@ -42079,7 +42079,7 @@
         <v>5217</v>
       </c>
       <c r="B5217">
-        <v>51.72908982099808</v>
+        <v>51.72908982099807</v>
       </c>
     </row>
     <row r="5218" spans="1:2">
@@ -42151,7 +42151,7 @@
         <v>5226</v>
       </c>
       <c r="B5226">
-        <v>95.22807081299666</v>
+        <v>95.22807081299663</v>
       </c>
     </row>
     <row r="5227" spans="1:2">
@@ -42167,7 +42167,7 @@
         <v>5228</v>
       </c>
       <c r="B5228">
-        <v>59.8383654607575</v>
+        <v>59.83836546075749</v>
       </c>
     </row>
     <row r="5229" spans="1:2">
@@ -42175,7 +42175,7 @@
         <v>5229</v>
       </c>
       <c r="B5229">
-        <v>48.48332806782368</v>
+        <v>48.48332806782367</v>
       </c>
     </row>
     <row r="5230" spans="1:2">
@@ -42631,7 +42631,7 @@
         <v>5286</v>
       </c>
       <c r="B5286">
-        <v>87.63439505155414</v>
+        <v>87.63439505155412</v>
       </c>
     </row>
     <row r="5287" spans="1:2">
@@ -43199,7 +43199,7 @@
         <v>5357</v>
       </c>
       <c r="B5357">
-        <v>129.3650733175818</v>
+        <v>129.3650733175817</v>
       </c>
     </row>
     <row r="5358" spans="1:2">
@@ -43271,7 +43271,7 @@
         <v>5366</v>
       </c>
       <c r="B5366">
-        <v>236.8704174679718</v>
+        <v>236.8704174679717</v>
       </c>
     </row>
     <row r="5367" spans="1:2">
@@ -43559,7 +43559,7 @@
         <v>5402</v>
       </c>
       <c r="B5402">
-        <v>164.5730746258509</v>
+        <v>164.5730746258508</v>
       </c>
     </row>
     <row r="5403" spans="1:2">
@@ -43831,7 +43831,7 @@
         <v>5436</v>
       </c>
       <c r="B5436">
-        <v>137.1863773547526</v>
+        <v>137.1863773547525</v>
       </c>
     </row>
     <row r="5437" spans="1:2">
@@ -44063,7 +44063,7 @@
         <v>5465</v>
       </c>
       <c r="B5465">
-        <v>160.155497631693</v>
+        <v>160.1554976316929</v>
       </c>
     </row>
     <row r="5466" spans="1:2">
@@ -44271,7 +44271,7 @@
         <v>5491</v>
       </c>
       <c r="B5491">
-        <v>188.801110856465</v>
+        <v>188.8011108564649</v>
       </c>
     </row>
     <row r="5492" spans="1:2">
@@ -44671,7 +44671,7 @@
         <v>5541</v>
       </c>
       <c r="B5541">
-        <v>136.806440060232</v>
+        <v>136.8064400602319</v>
       </c>
     </row>
     <row r="5542" spans="1:2">
@@ -44831,7 +44831,7 @@
         <v>5561</v>
       </c>
       <c r="B5561">
-        <v>213.7238133700181</v>
+        <v>213.723813370018</v>
       </c>
     </row>
     <row r="5562" spans="1:2">
@@ -44975,7 +44975,7 @@
         <v>5579</v>
       </c>
       <c r="B5579">
-        <v>210.0391777364483</v>
+        <v>210.0391777364482</v>
       </c>
     </row>
     <row r="5580" spans="1:2">
@@ -44983,7 +44983,7 @@
         <v>5580</v>
       </c>
       <c r="B5580">
-        <v>213.834389072905</v>
+        <v>213.8343890729049</v>
       </c>
     </row>
     <row r="5581" spans="1:2">
@@ -45071,7 +45071,7 @@
         <v>5591</v>
       </c>
       <c r="B5591">
-        <v>152.246887732105</v>
+        <v>152.2468877321049</v>
       </c>
     </row>
     <row r="5592" spans="1:2">
@@ -45655,7 +45655,7 @@
         <v>5664</v>
       </c>
       <c r="B5664">
-        <v>75.52557894718333</v>
+        <v>75.52557894718332</v>
       </c>
     </row>
     <row r="5665" spans="1:2">
@@ -45671,7 +45671,7 @@
         <v>5666</v>
       </c>
       <c r="B5666">
-        <v>76.92909615133252</v>
+        <v>76.9290961513325</v>
       </c>
     </row>
     <row r="5667" spans="1:2">
@@ -45743,7 +45743,7 @@
         <v>5675</v>
       </c>
       <c r="B5675">
-        <v>113.6435705196326</v>
+        <v>113.6435705196325</v>
       </c>
     </row>
     <row r="5676" spans="1:2">
@@ -46311,7 +46311,7 @@
         <v>5746</v>
       </c>
       <c r="B5746">
-        <v>207.0884505978943</v>
+        <v>207.0884505978942</v>
       </c>
     </row>
     <row r="5747" spans="1:2">
@@ -46423,7 +46423,7 @@
         <v>5760</v>
       </c>
       <c r="B5760">
-        <v>171.0859043967104</v>
+        <v>171.0859043967103</v>
       </c>
     </row>
     <row r="5761" spans="1:2">
@@ -46447,7 +46447,7 @@
         <v>5763</v>
       </c>
       <c r="B5763">
-        <v>163.0691219767525</v>
+        <v>163.0691219767524</v>
       </c>
     </row>
     <row r="5764" spans="1:2">
@@ -46631,7 +46631,7 @@
         <v>5786</v>
       </c>
       <c r="B5786">
-        <v>63.98854443924081</v>
+        <v>63.9885444392408</v>
       </c>
     </row>
     <row r="5787" spans="1:2">
@@ -46671,7 +46671,7 @@
         <v>5791</v>
       </c>
       <c r="B5791">
-        <v>126.9319125640141</v>
+        <v>126.931912564014</v>
       </c>
     </row>
     <row r="5792" spans="1:2">
@@ -46863,7 +46863,7 @@
         <v>5815</v>
       </c>
       <c r="B5815">
-        <v>120.3646858776687</v>
+        <v>120.3646858776686</v>
       </c>
     </row>
     <row r="5816" spans="1:2">
@@ -47047,7 +47047,7 @@
         <v>5838</v>
       </c>
       <c r="B5838">
-        <v>125.5211535744996</v>
+        <v>125.5211535744995</v>
       </c>
     </row>
     <row r="5839" spans="1:2">
@@ -47239,7 +47239,7 @@
         <v>5862</v>
       </c>
       <c r="B5862">
-        <v>134.1286499799833</v>
+        <v>134.1286499799832</v>
       </c>
     </row>
     <row r="5863" spans="1:2">
@@ -47319,7 +47319,7 @@
         <v>5872</v>
       </c>
       <c r="B5872">
-        <v>187.5979370143447</v>
+        <v>187.5979370143446</v>
       </c>
     </row>
     <row r="5873" spans="1:2">
@@ -47463,7 +47463,7 @@
         <v>5890</v>
       </c>
       <c r="B5890">
-        <v>98.59671725268176</v>
+        <v>98.59671725268174</v>
       </c>
     </row>
     <row r="5891" spans="1:2">
@@ -47495,7 +47495,7 @@
         <v>5894</v>
       </c>
       <c r="B5894">
-        <v>83.11260199604824</v>
+        <v>83.11260199604823</v>
       </c>
     </row>
     <row r="5895" spans="1:2">
@@ -47527,7 +47527,7 @@
         <v>5898</v>
       </c>
       <c r="B5898">
-        <v>72.39675253843481</v>
+        <v>72.3967525384348</v>
       </c>
     </row>
     <row r="5899" spans="1:2">
@@ -47623,7 +47623,7 @@
         <v>5910</v>
       </c>
       <c r="B5910">
-        <v>7.359746458383034</v>
+        <v>7.359746458383033</v>
       </c>
     </row>
     <row r="5911" spans="1:2">
@@ -47671,7 +47671,7 @@
         <v>5916</v>
       </c>
       <c r="B5916">
-        <v>91.58593048003279</v>
+        <v>91.58593048003277</v>
       </c>
     </row>
     <row r="5917" spans="1:2">
@@ -47695,7 +47695,7 @@
         <v>5919</v>
       </c>
       <c r="B5919">
-        <v>100.7025792009829</v>
+        <v>100.7025792009828</v>
       </c>
     </row>
     <row r="5920" spans="1:2">
@@ -47711,7 +47711,7 @@
         <v>5921</v>
       </c>
       <c r="B5921">
-        <v>90.10243418943293</v>
+        <v>90.10243418943291</v>
       </c>
     </row>
     <row r="5922" spans="1:2">
@@ -47807,7 +47807,7 @@
         <v>5933</v>
       </c>
       <c r="B5933">
-        <v>7.952717090906534</v>
+        <v>7.952717090906533</v>
       </c>
     </row>
     <row r="5934" spans="1:2">
@@ -47823,7 +47823,7 @@
         <v>5935</v>
       </c>
       <c r="B5935">
-        <v>32.60385998003601</v>
+        <v>32.603859980036</v>
       </c>
     </row>
     <row r="5936" spans="1:2">
@@ -47839,7 +47839,7 @@
         <v>5937</v>
       </c>
       <c r="B5937">
-        <v>79.44657637343347</v>
+        <v>79.44657637343346</v>
       </c>
     </row>
     <row r="5938" spans="1:2">
@@ -47919,7 +47919,7 @@
         <v>5947</v>
       </c>
       <c r="B5947">
-        <v>56.5873284288872</v>
+        <v>56.58732842888719</v>
       </c>
     </row>
     <row r="5948" spans="1:2">
@@ -48087,7 +48087,7 @@
         <v>5968</v>
       </c>
       <c r="B5968">
-        <v>133.3967050609266</v>
+        <v>133.3967050609265</v>
       </c>
     </row>
     <row r="5969" spans="1:2">
@@ -48127,7 +48127,7 @@
         <v>5973</v>
       </c>
       <c r="B5973">
-        <v>91.828241614798</v>
+        <v>91.82824161479796</v>
       </c>
     </row>
     <row r="5974" spans="1:2">
@@ -48199,7 +48199,7 @@
         <v>5982</v>
       </c>
       <c r="B5982">
-        <v>58.47001678124768</v>
+        <v>58.47001678124767</v>
       </c>
     </row>
     <row r="5983" spans="1:2">
@@ -48311,7 +48311,7 @@
         <v>5996</v>
       </c>
       <c r="B5996">
-        <v>135.051940980182</v>
+        <v>135.0519409801819</v>
       </c>
     </row>
     <row r="5997" spans="1:2">
@@ -48519,7 +48519,7 @@
         <v>6022</v>
       </c>
       <c r="B6022">
-        <v>122.6182790751382</v>
+        <v>122.6182790751381</v>
       </c>
     </row>
     <row r="6023" spans="1:2">
@@ -49239,7 +49239,7 @@
         <v>6112</v>
       </c>
       <c r="B6112">
-        <v>152.0584137471419</v>
+        <v>152.0584137471418</v>
       </c>
     </row>
     <row r="6113" spans="1:2">
@@ -49343,7 +49343,7 @@
         <v>6125</v>
       </c>
       <c r="B6125">
-        <v>57.41818482349211</v>
+        <v>57.4181848234921</v>
       </c>
     </row>
     <row r="6126" spans="1:2">
@@ -49535,7 +49535,7 @@
         <v>6149</v>
       </c>
       <c r="B6149">
-        <v>50.08847814657187</v>
+        <v>50.08847814657186</v>
       </c>
     </row>
     <row r="6150" spans="1:2">
@@ -49751,7 +49751,7 @@
         <v>6176</v>
       </c>
       <c r="B6176">
-        <v>96.24335681223116</v>
+        <v>96.24335681223114</v>
       </c>
     </row>
     <row r="6177" spans="1:2">
@@ -49791,7 +49791,7 @@
         <v>6181</v>
       </c>
       <c r="B6181">
-        <v>97.69224141316514</v>
+        <v>97.69224141316508</v>
       </c>
     </row>
     <row r="6182" spans="1:2">
@@ -49879,7 +49879,7 @@
         <v>6192</v>
       </c>
       <c r="B6192">
-        <v>90.75736003952944</v>
+        <v>90.75736003952942</v>
       </c>
     </row>
     <row r="6193" spans="1:2">
@@ -50135,7 +50135,7 @@
         <v>6224</v>
       </c>
       <c r="B6224">
-        <v>141.0893802192289</v>
+        <v>141.0893802192288</v>
       </c>
     </row>
     <row r="6225" spans="1:2">
@@ -50327,7 +50327,7 @@
         <v>6248</v>
       </c>
       <c r="B6248">
-        <v>173.3595495146451</v>
+        <v>173.359549514645</v>
       </c>
     </row>
     <row r="6249" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>194.7772103271201</v>
+        <v>194.77721032712</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50807,7 +50807,7 @@
         <v>6308</v>
       </c>
       <c r="B6308">
-        <v>93.59818553858545</v>
+        <v>93.59818553858544</v>
       </c>
     </row>
     <row r="6309" spans="1:2">
@@ -50815,7 +50815,7 @@
         <v>6309</v>
       </c>
       <c r="B6309">
-        <v>81.49558254023427</v>
+        <v>81.49558254023425</v>
       </c>
     </row>
     <row r="6310" spans="1:2">
@@ -50911,7 +50911,7 @@
         <v>6321</v>
       </c>
       <c r="B6321">
-        <v>50.67467883810229</v>
+        <v>50.67467883810228</v>
       </c>
     </row>
     <row r="6322" spans="1:2">
@@ -50999,7 +50999,7 @@
         <v>6332</v>
       </c>
       <c r="B6332">
-        <v>15.18828935020876</v>
+        <v>15.18828935020875</v>
       </c>
     </row>
     <row r="6333" spans="1:2">
@@ -51143,7 +51143,7 @@
         <v>6350</v>
       </c>
       <c r="B6350">
-        <v>73.90284460611547</v>
+        <v>73.90284460611545</v>
       </c>
     </row>
     <row r="6351" spans="1:2">
@@ -51335,7 +51335,7 @@
         <v>6374</v>
       </c>
       <c r="B6374">
-        <v>77.00324312411384</v>
+        <v>77.00324312411382</v>
       </c>
     </row>
     <row r="6375" spans="1:2">
@@ -51367,7 +51367,7 @@
         <v>6378</v>
       </c>
       <c r="B6378">
-        <v>64.39972310648268</v>
+        <v>64.39972310648267</v>
       </c>
     </row>
     <row r="6379" spans="1:2">
@@ -51375,7 +51375,7 @@
         <v>6379</v>
       </c>
       <c r="B6379">
-        <v>64.66465932543254</v>
+        <v>64.66465932543252</v>
       </c>
     </row>
     <row r="6380" spans="1:2">
@@ -51399,7 +51399,7 @@
         <v>6382</v>
       </c>
       <c r="B6382">
-        <v>45.56375438067936</v>
+        <v>45.56375438067935</v>
       </c>
     </row>
     <row r="6383" spans="1:2">
@@ -51415,7 +51415,7 @@
         <v>6384</v>
       </c>
       <c r="B6384">
-        <v>37.00871769111603</v>
+        <v>37.00871769111602</v>
       </c>
     </row>
     <row r="6385" spans="1:2">
@@ -51543,7 +51543,7 @@
         <v>6400</v>
       </c>
       <c r="B6400">
-        <v>37.82873045729047</v>
+        <v>37.82873045729046</v>
       </c>
     </row>
     <row r="6401" spans="1:2">
@@ -51647,7 +51647,7 @@
         <v>6413</v>
       </c>
       <c r="B6413">
-        <v>7.947852111664756</v>
+        <v>7.947852111664755</v>
       </c>
     </row>
     <row r="6414" spans="1:2">
@@ -51703,7 +51703,7 @@
         <v>6420</v>
       </c>
       <c r="B6420">
-        <v>54.76589192360694</v>
+        <v>54.76589192360693</v>
       </c>
     </row>
     <row r="6421" spans="1:2">
@@ -51759,7 +51759,7 @@
         <v>6427</v>
       </c>
       <c r="B6427">
-        <v>57.2188965172024</v>
+        <v>57.21889651720239</v>
       </c>
     </row>
     <row r="6428" spans="1:2">
@@ -51767,7 +51767,7 @@
         <v>6428</v>
       </c>
       <c r="B6428">
-        <v>60.31196825923424</v>
+        <v>60.31196825923423</v>
       </c>
     </row>
     <row r="6429" spans="1:2">
@@ -51847,7 +51847,7 @@
         <v>6438</v>
       </c>
       <c r="B6438">
-        <v>6.32289043070306</v>
+        <v>6.322890430703059</v>
       </c>
     </row>
     <row r="6439" spans="1:2">
@@ -51935,7 +51935,7 @@
         <v>6449</v>
       </c>
       <c r="B6449">
-        <v>93.0358320374709</v>
+        <v>93.03583203747088</v>
       </c>
     </row>
     <row r="6450" spans="1:2">
@@ -51975,7 +51975,7 @@
         <v>6454</v>
       </c>
       <c r="B6454">
-        <v>6.726830243289993</v>
+        <v>6.726830243289992</v>
       </c>
     </row>
     <row r="6455" spans="1:2">
@@ -52079,7 +52079,7 @@
         <v>6467</v>
       </c>
       <c r="B6467">
-        <v>82.77820794093564</v>
+        <v>82.77820794093563</v>
       </c>
     </row>
     <row r="6468" spans="1:2">
@@ -52151,7 +52151,7 @@
         <v>6476</v>
       </c>
       <c r="B6476">
-        <v>74.4500082352962</v>
+        <v>74.45000823529618</v>
       </c>
     </row>
     <row r="6477" spans="1:2">
@@ -52439,7 +52439,7 @@
         <v>6512</v>
       </c>
       <c r="B6512">
-        <v>63.15299890801732</v>
+        <v>63.15299890801731</v>
       </c>
     </row>
     <row r="6513" spans="1:2">
@@ -52479,7 +52479,7 @@
         <v>6517</v>
       </c>
       <c r="B6517">
-        <v>88.01919732531648</v>
+        <v>88.01919732531647</v>
       </c>
     </row>
     <row r="6518" spans="1:2">
@@ -52511,7 +52511,7 @@
         <v>6521</v>
       </c>
       <c r="B6521">
-        <v>79.39499587062907</v>
+        <v>79.39499587062906</v>
       </c>
     </row>
     <row r="6522" spans="1:2">
@@ -52543,7 +52543,7 @@
         <v>6525</v>
       </c>
       <c r="B6525">
-        <v>59.08693131762981</v>
+        <v>59.0869313176298</v>
       </c>
     </row>
     <row r="6526" spans="1:2">
@@ -52559,7 +52559,7 @@
         <v>6527</v>
       </c>
       <c r="B6527">
-        <v>45.57137422768455</v>
+        <v>45.57137422768454</v>
       </c>
     </row>
     <row r="6528" spans="1:2">
@@ -52631,7 +52631,7 @@
         <v>6536</v>
       </c>
       <c r="B6536">
-        <v>69.78519651292356</v>
+        <v>69.78519651292355</v>
       </c>
     </row>
     <row r="6537" spans="1:2">
@@ -52647,7 +52647,7 @@
         <v>6538</v>
       </c>
       <c r="B6538">
-        <v>79.33139945523956</v>
+        <v>79.33139945523955</v>
       </c>
     </row>
     <row r="6539" spans="1:2">
@@ -52663,7 +52663,7 @@
         <v>6540</v>
       </c>
       <c r="B6540">
-        <v>82.36087478188189</v>
+        <v>82.36087478188188</v>
       </c>
     </row>
     <row r="6541" spans="1:2">
@@ -52871,7 +52871,7 @@
         <v>6566</v>
       </c>
       <c r="B6566">
-        <v>59.33897241087857</v>
+        <v>59.33897241087856</v>
       </c>
     </row>
     <row r="6567" spans="1:2">
@@ -52895,7 +52895,7 @@
         <v>6569</v>
       </c>
       <c r="B6569">
-        <v>59.02538639951093</v>
+        <v>59.02538639951092</v>
       </c>
     </row>
     <row r="6570" spans="1:2">
@@ -52919,7 +52919,7 @@
         <v>6572</v>
       </c>
       <c r="B6572">
-        <v>6.685917526292869</v>
+        <v>6.685917526292868</v>
       </c>
     </row>
     <row r="6573" spans="1:2">
@@ -53175,7 +53175,7 @@
         <v>6604</v>
       </c>
       <c r="B6604">
-        <v>69.04665749549697</v>
+        <v>69.04665749549696</v>
       </c>
     </row>
     <row r="6605" spans="1:2">
@@ -53343,7 +53343,7 @@
         <v>6625</v>
       </c>
       <c r="B6625">
-        <v>102.4998373455736</v>
+        <v>102.4998373455735</v>
       </c>
     </row>
     <row r="6626" spans="1:2">
@@ -53375,7 +53375,7 @@
         <v>6629</v>
       </c>
       <c r="B6629">
-        <v>83.94580295896245</v>
+        <v>83.94580295896243</v>
       </c>
     </row>
     <row r="6630" spans="1:2">
@@ -53399,7 +53399,7 @@
         <v>6632</v>
       </c>
       <c r="B6632">
-        <v>122.7234974394384</v>
+        <v>122.7234974394383</v>
       </c>
     </row>
     <row r="6633" spans="1:2">
@@ -53503,7 +53503,7 @@
         <v>6645</v>
       </c>
       <c r="B6645">
-        <v>85.46391093922821</v>
+        <v>85.4639109392282</v>
       </c>
     </row>
     <row r="6646" spans="1:2">
@@ -53719,7 +53719,7 @@
         <v>6672</v>
       </c>
       <c r="B6672">
-        <v>96.63226208053476</v>
+        <v>96.63226208053474</v>
       </c>
     </row>
     <row r="6673" spans="1:2">
@@ -53775,7 +53775,7 @@
         <v>6679</v>
       </c>
       <c r="B6679">
-        <v>107.1520470132838</v>
+        <v>107.1520470132837</v>
       </c>
     </row>
     <row r="6680" spans="1:2">
@@ -53871,7 +53871,7 @@
         <v>6691</v>
       </c>
       <c r="B6691">
-        <v>20.5924020747085</v>
+        <v>20.59240207470849</v>
       </c>
     </row>
     <row r="6692" spans="1:2">
@@ -54031,7 +54031,7 @@
         <v>6711</v>
       </c>
       <c r="B6711">
-        <v>29.14957818285406</v>
+        <v>29.14957818285405</v>
       </c>
     </row>
     <row r="6712" spans="1:2">
@@ -54199,7 +54199,7 @@
         <v>6732</v>
       </c>
       <c r="B6732">
-        <v>16.83807414814507</v>
+        <v>16.83807414814506</v>
       </c>
     </row>
     <row r="6733" spans="1:2">
@@ -54231,7 +54231,7 @@
         <v>6736</v>
       </c>
       <c r="B6736">
-        <v>19.67315545484333</v>
+        <v>19.67315545484332</v>
       </c>
     </row>
     <row r="6737" spans="1:2">
@@ -54367,7 +54367,7 @@
         <v>6753</v>
       </c>
       <c r="B6753">
-        <v>7.929388636229091</v>
+        <v>7.92938863622909</v>
       </c>
     </row>
     <row r="6754" spans="1:2">
@@ -54383,7 +54383,7 @@
         <v>6755</v>
       </c>
       <c r="B6755">
-        <v>29.82085739690787</v>
+        <v>29.82085739690786</v>
       </c>
     </row>
     <row r="6756" spans="1:2">
@@ -54391,7 +54391,7 @@
         <v>6756</v>
       </c>
       <c r="B6756">
-        <v>38.46059161664433</v>
+        <v>38.46059161664432</v>
       </c>
     </row>
     <row r="6757" spans="1:2">
@@ -54415,7 +54415,7 @@
         <v>6759</v>
       </c>
       <c r="B6759">
-        <v>55.68291120357829</v>
+        <v>55.68291120357828</v>
       </c>
     </row>
     <row r="6760" spans="1:2">
@@ -54567,7 +54567,7 @@
         <v>6778</v>
       </c>
       <c r="B6778">
-        <v>56.34818246133954</v>
+        <v>56.34818246133953</v>
       </c>
     </row>
     <row r="6779" spans="1:2">
@@ -54607,7 +54607,7 @@
         <v>6783</v>
       </c>
       <c r="B6783">
-        <v>91.09439173398998</v>
+        <v>91.09439173398997</v>
       </c>
     </row>
     <row r="6784" spans="1:2">
@@ -54623,7 +54623,7 @@
         <v>6785</v>
       </c>
       <c r="B6785">
-        <v>89.1199721465285</v>
+        <v>89.11997214652848</v>
       </c>
     </row>
     <row r="6786" spans="1:2">
@@ -54631,7 +54631,7 @@
         <v>6786</v>
       </c>
       <c r="B6786">
-        <v>60.52620318849568</v>
+        <v>60.52620318849567</v>
       </c>
     </row>
     <row r="6787" spans="1:2">
@@ -54647,7 +54647,7 @@
         <v>6788</v>
       </c>
       <c r="B6788">
-        <v>48.97744583900671</v>
+        <v>48.9774458390067</v>
       </c>
     </row>
     <row r="6789" spans="1:2">
@@ -54655,7 +54655,7 @@
         <v>6789</v>
       </c>
       <c r="B6789">
-        <v>22.39062735372678</v>
+        <v>22.39062735372677</v>
       </c>
     </row>
     <row r="6790" spans="1:2">
@@ -54703,7 +54703,7 @@
         <v>6795</v>
       </c>
       <c r="B6795">
-        <v>24.13220200097183</v>
+        <v>24.13220200097182</v>
       </c>
     </row>
     <row r="6796" spans="1:2">
@@ -54911,7 +54911,7 @@
         <v>6821</v>
       </c>
       <c r="B6821">
-        <v>23.39017543818517</v>
+        <v>23.39017543818516</v>
       </c>
     </row>
     <row r="6822" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>129.1285649893821</v>
+        <v>129.128564989382</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -55087,7 +55087,7 @@
         <v>6843</v>
       </c>
       <c r="B6843">
-        <v>60.19767055415631</v>
+        <v>60.1976705541563</v>
       </c>
     </row>
     <row r="6844" spans="1:2">
@@ -55103,7 +55103,7 @@
         <v>6845</v>
       </c>
       <c r="B6845">
-        <v>60.09304419335421</v>
+        <v>60.0930441933542</v>
       </c>
     </row>
     <row r="6846" spans="1:2">
@@ -55255,7 +55255,7 @@
         <v>6864</v>
       </c>
       <c r="B6864">
-        <v>67.4239231544291</v>
+        <v>67.42392315442909</v>
       </c>
     </row>
     <row r="6865" spans="1:2">
@@ -55335,7 +55335,7 @@
         <v>6874</v>
       </c>
       <c r="B6874">
-        <v>128.527183218049</v>
+        <v>128.5271832180489</v>
       </c>
     </row>
     <row r="6875" spans="1:2">
@@ -55719,7 +55719,7 @@
         <v>6922</v>
       </c>
       <c r="B6922">
-        <v>88.50598832053298</v>
+        <v>88.50598832053296</v>
       </c>
     </row>
     <row r="6923" spans="1:2">
@@ -55735,7 +55735,7 @@
         <v>6924</v>
       </c>
       <c r="B6924">
-        <v>88.43711662644756</v>
+        <v>88.43711662644755</v>
       </c>
     </row>
     <row r="6925" spans="1:2">
@@ -55767,7 +55767,7 @@
         <v>6928</v>
       </c>
       <c r="B6928">
-        <v>95.33328331587607</v>
+        <v>95.33328331587606</v>
       </c>
     </row>
     <row r="6929" spans="1:2">
@@ -56103,7 +56103,7 @@
         <v>6970</v>
       </c>
       <c r="B6970">
-        <v>17.45478353480014</v>
+        <v>17.45478353480013</v>
       </c>
     </row>
     <row r="6971" spans="1:2">
@@ -56135,7 +56135,7 @@
         <v>6974</v>
       </c>
       <c r="B6974">
-        <v>38.47114217403614</v>
+        <v>38.47114217403613</v>
       </c>
     </row>
     <row r="6975" spans="1:2">
@@ -56295,7 +56295,7 @@
         <v>6994</v>
       </c>
       <c r="B6994">
-        <v>30.1701980749922</v>
+        <v>30.17019807499219</v>
       </c>
     </row>
     <row r="6995" spans="1:2">
@@ -56487,7 +56487,7 @@
         <v>7018</v>
       </c>
       <c r="B7018">
-        <v>61.92239361667833</v>
+        <v>61.92239361667832</v>
       </c>
     </row>
     <row r="7019" spans="1:2">
@@ -56495,7 +56495,7 @@
         <v>7019</v>
       </c>
       <c r="B7019">
-        <v>69.81831354029229</v>
+        <v>69.81831354029228</v>
       </c>
     </row>
     <row r="7020" spans="1:2">
@@ -56703,7 +56703,7 @@
         <v>7045</v>
       </c>
       <c r="B7045">
-        <v>91.41032231366692</v>
+        <v>91.4103223136669</v>
       </c>
     </row>
     <row r="7046" spans="1:2">
@@ -56735,7 +56735,7 @@
         <v>7049</v>
       </c>
       <c r="B7049">
-        <v>99.41262702431494</v>
+        <v>99.41262702431492</v>
       </c>
     </row>
     <row r="7050" spans="1:2">
@@ -56951,7 +56951,7 @@
         <v>7076</v>
       </c>
       <c r="B7076">
-        <v>63.46892948769425</v>
+        <v>63.46892948769424</v>
       </c>
     </row>
     <row r="7077" spans="1:2">
@@ -56983,7 +56983,7 @@
         <v>7080</v>
       </c>
       <c r="B7080">
-        <v>47.12787451401496</v>
+        <v>47.12787451401495</v>
       </c>
     </row>
     <row r="7081" spans="1:2">
@@ -57015,7 +57015,7 @@
         <v>7084</v>
       </c>
       <c r="B7084">
-        <v>24.31135632690551</v>
+        <v>24.3113563269055</v>
       </c>
     </row>
     <row r="7085" spans="1:2">
@@ -57359,7 +57359,7 @@
         <v>7127</v>
       </c>
       <c r="B7127">
-        <v>104.3907316870166</v>
+        <v>104.3907316870165</v>
       </c>
     </row>
     <row r="7128" spans="1:2">
@@ -57575,7 +57575,7 @@
         <v>7154</v>
       </c>
       <c r="B7154">
-        <v>7.319888797125091</v>
+        <v>7.31988879712509</v>
       </c>
     </row>
     <row r="7155" spans="1:2">
@@ -57847,7 +57847,7 @@
         <v>7188</v>
       </c>
       <c r="B7188">
-        <v>7.938327302908262</v>
+        <v>7.938327302908261</v>
       </c>
     </row>
     <row r="7189" spans="1:2">
@@ -58063,7 +58063,7 @@
         <v>7215</v>
       </c>
       <c r="B7215">
-        <v>7.369564338178189</v>
+        <v>7.369564338178188</v>
       </c>
     </row>
     <row r="7216" spans="1:2">
@@ -58399,7 +58399,7 @@
         <v>7257</v>
       </c>
       <c r="B7257">
-        <v>39.16132447008361</v>
+        <v>39.1613244700836</v>
       </c>
     </row>
     <row r="7258" spans="1:2">
@@ -58455,7 +58455,7 @@
         <v>7264</v>
       </c>
       <c r="B7264">
-        <v>54.44204842588615</v>
+        <v>54.44204842588614</v>
       </c>
     </row>
     <row r="7265" spans="1:2">
@@ -58791,7 +58791,7 @@
         <v>7306</v>
       </c>
       <c r="B7306">
-        <v>7.942518218761119</v>
+        <v>7.942518218761118</v>
       </c>
     </row>
     <row r="7307" spans="1:2">
@@ -59199,7 +59199,7 @@
         <v>7357</v>
       </c>
       <c r="B7357">
-        <v>73.43129330490936</v>
+        <v>73.43129330490935</v>
       </c>
     </row>
     <row r="7358" spans="1:2">
@@ -59263,7 +59263,7 @@
         <v>7365</v>
       </c>
       <c r="B7365">
-        <v>7.420089785243405</v>
+        <v>7.420089785243404</v>
       </c>
     </row>
     <row r="7366" spans="1:2">
@@ -59367,7 +59367,7 @@
         <v>7378</v>
       </c>
       <c r="B7378">
-        <v>55.5554253017606</v>
+        <v>55.55542530176059</v>
       </c>
     </row>
     <row r="7379" spans="1:2">
@@ -59423,7 +59423,7 @@
         <v>7385</v>
       </c>
       <c r="B7385">
-        <v>37.05707441249515</v>
+        <v>37.05707441249514</v>
       </c>
     </row>
     <row r="7386" spans="1:2">
@@ -59487,7 +59487,7 @@
         <v>7393</v>
       </c>
       <c r="B7393">
-        <v>6.719034553661601</v>
+        <v>6.7190345536616</v>
       </c>
     </row>
     <row r="7394" spans="1:2">
@@ -59799,7 +59799,7 @@
         <v>7432</v>
       </c>
       <c r="B7432">
-        <v>20.48299865597622</v>
+        <v>20.48299865597621</v>
       </c>
     </row>
     <row r="7433" spans="1:2">
@@ -60167,7 +60167,7 @@
         <v>7478</v>
       </c>
       <c r="B7478">
-        <v>59.44359877168067</v>
+        <v>59.44359877168066</v>
       </c>
     </row>
     <row r="7479" spans="1:2">
@@ -60183,7 +60183,7 @@
         <v>7480</v>
       </c>
       <c r="B7480">
-        <v>59.06876091323281</v>
+        <v>59.0687609132328</v>
       </c>
     </row>
     <row r="7481" spans="1:2">
@@ -60207,7 +60207,7 @@
         <v>7483</v>
       </c>
       <c r="B7483">
-        <v>19.10805587809652</v>
+        <v>19.10805587809651</v>
       </c>
     </row>
     <row r="7484" spans="1:2">
@@ -60535,7 +60535,7 @@
         <v>7524</v>
       </c>
       <c r="B7524">
-        <v>47.08948220795032</v>
+        <v>47.08948220795031</v>
       </c>
     </row>
     <row r="7525" spans="1:2">
@@ -60703,7 +60703,7 @@
         <v>7545</v>
       </c>
       <c r="B7545">
-        <v>7.946884977237174</v>
+        <v>7.946884977237173</v>
       </c>
     </row>
     <row r="7546" spans="1:2">
@@ -60719,7 +60719,7 @@
         <v>7547</v>
       </c>
       <c r="B7547">
-        <v>16.08400236566943</v>
+        <v>16.08400236566942</v>
       </c>
     </row>
     <row r="7548" spans="1:2">
@@ -60751,7 +60751,7 @@
         <v>7551</v>
       </c>
       <c r="B7551">
-        <v>29.16648838178482</v>
+        <v>29.16648838178481</v>
       </c>
     </row>
     <row r="7552" spans="1:2">
@@ -60943,7 +60943,7 @@
         <v>7575</v>
       </c>
       <c r="B7575">
-        <v>15.75775568543162</v>
+        <v>15.75775568543161</v>
       </c>
     </row>
     <row r="7576" spans="1:2">
@@ -60951,7 +60951,7 @@
         <v>7576</v>
       </c>
       <c r="B7576">
-        <v>6.723020319787396</v>
+        <v>6.723020319787395</v>
       </c>
     </row>
     <row r="7577" spans="1:2">
@@ -61111,7 +61111,7 @@
         <v>7596</v>
       </c>
       <c r="B7596">
-        <v>21.15081963177383</v>
+        <v>21.15081963177382</v>
       </c>
     </row>
     <row r="7597" spans="1:2">
@@ -61119,7 +61119,7 @@
         <v>7597</v>
       </c>
       <c r="B7597">
-        <v>20.44662854007835</v>
+        <v>20.44662854007834</v>
       </c>
     </row>
     <row r="7598" spans="1:2">
@@ -63591,7 +63591,7 @@
         <v>7906</v>
       </c>
       <c r="B7906">
-        <v>37.046816926142</v>
+        <v>37.04681692614199</v>
       </c>
     </row>
     <row r="7907" spans="1:2">
@@ -63815,7 +63815,7 @@
         <v>7934</v>
       </c>
       <c r="B7934">
-        <v>20.8772964313912</v>
+        <v>20.87729643139119</v>
       </c>
     </row>
     <row r="7935" spans="1:2">
@@ -63991,7 +63991,7 @@
         <v>7956</v>
       </c>
       <c r="B7956">
-        <v>7.940056422036363</v>
+        <v>7.940056422036362</v>
       </c>
     </row>
     <row r="7957" spans="1:2">
@@ -64767,7 +64767,7 @@
         <v>8053</v>
       </c>
       <c r="B8053">
-        <v>60.19767055415631</v>
+        <v>60.1976705541563</v>
       </c>
     </row>
     <row r="8054" spans="1:2">
@@ -64935,7 +64935,7 @@
         <v>8074</v>
       </c>
       <c r="B8074">
-        <v>7.935191442794586</v>
+        <v>7.935191442794585</v>
       </c>
     </row>
     <row r="8075" spans="1:2">
@@ -64943,7 +64943,7 @@
         <v>8075</v>
       </c>
       <c r="B8075">
-        <v>21.53512368477045</v>
+        <v>21.53512368477044</v>
       </c>
     </row>
     <row r="8076" spans="1:2">
@@ -64951,7 +64951,7 @@
         <v>8076</v>
       </c>
       <c r="B8076">
-        <v>48.66151525932978</v>
+        <v>48.66151525932977</v>
       </c>
     </row>
     <row r="8077" spans="1:2">
@@ -64967,7 +64967,7 @@
         <v>8078</v>
       </c>
       <c r="B8078">
-        <v>83.65976562522897</v>
+        <v>83.65976562522896</v>
       </c>
     </row>
     <row r="8079" spans="1:2">
@@ -65023,7 +65023,7 @@
         <v>8085</v>
       </c>
       <c r="B8085">
-        <v>46.42479709226639</v>
+        <v>46.42479709226638</v>
       </c>
     </row>
     <row r="8086" spans="1:2">
@@ -65047,7 +65047,7 @@
         <v>8088</v>
       </c>
       <c r="B8088">
-        <v>27.69486146825074</v>
+        <v>27.69486146825073</v>
       </c>
     </row>
     <row r="8089" spans="1:2">
@@ -65223,7 +65223,7 @@
         <v>8110</v>
       </c>
       <c r="B8110">
-        <v>54.73805017493411</v>
+        <v>54.7380501749341</v>
       </c>
     </row>
     <row r="8111" spans="1:2">
@@ -65287,7 +65287,7 @@
         <v>8118</v>
       </c>
       <c r="B8118">
-        <v>56.25645122623854</v>
+        <v>56.25645122623853</v>
       </c>
     </row>
     <row r="8119" spans="1:2">
@@ -65303,7 +65303,7 @@
         <v>8120</v>
       </c>
       <c r="B8120">
-        <v>59.07901839958596</v>
+        <v>59.07901839958595</v>
       </c>
     </row>
     <row r="8121" spans="1:2">
@@ -65335,7 +65335,7 @@
         <v>8124</v>
       </c>
       <c r="B8124">
-        <v>91.97594941828331</v>
+        <v>91.97594941828328</v>
       </c>
     </row>
     <row r="8125" spans="1:2">
@@ -65407,7 +65407,7 @@
         <v>8133</v>
       </c>
       <c r="B8133">
-        <v>37.06967646715759</v>
+        <v>37.06967646715758</v>
       </c>
     </row>
     <row r="8134" spans="1:2">
@@ -65423,7 +65423,7 @@
         <v>8135</v>
       </c>
       <c r="B8135">
-        <v>55.58356012147209</v>
+        <v>55.58356012147208</v>
       </c>
     </row>
     <row r="8136" spans="1:2">
@@ -65431,7 +65431,7 @@
         <v>8136</v>
       </c>
       <c r="B8136">
-        <v>36.20365154791331</v>
+        <v>36.2036515479133</v>
       </c>
     </row>
     <row r="8137" spans="1:2">
@@ -65479,7 +65479,7 @@
         <v>8142</v>
       </c>
       <c r="B8142">
-        <v>15.06569773473672</v>
+        <v>15.06569773473671</v>
       </c>
     </row>
     <row r="8143" spans="1:2">
@@ -65591,7 +65591,7 @@
         <v>8156</v>
       </c>
       <c r="B8156">
-        <v>57.15031789415564</v>
+        <v>57.15031789415563</v>
       </c>
     </row>
     <row r="8157" spans="1:2">
@@ -65663,7 +65663,7 @@
         <v>8165</v>
       </c>
       <c r="B8165">
-        <v>69.12021832620097</v>
+        <v>69.12021832620096</v>
       </c>
     </row>
     <row r="8166" spans="1:2">
@@ -65679,7 +65679,7 @@
         <v>8167</v>
       </c>
       <c r="B8167">
-        <v>90.67383479351096</v>
+        <v>90.67383479351092</v>
       </c>
     </row>
     <row r="8168" spans="1:2">
@@ -65687,7 +65687,7 @@
         <v>8168</v>
       </c>
       <c r="B8168">
-        <v>91.11754434604424</v>
+        <v>91.1175443460442</v>
       </c>
     </row>
     <row r="8169" spans="1:2">
@@ -65815,7 +65815,7 @@
         <v>8184</v>
       </c>
       <c r="B8184">
-        <v>90.6506821814567</v>
+        <v>90.65068218145667</v>
       </c>
     </row>
     <row r="8185" spans="1:2">
@@ -65855,7 +65855,7 @@
         <v>8189</v>
       </c>
       <c r="B8189">
-        <v>6.696936997346536</v>
+        <v>6.696936997346535</v>
       </c>
     </row>
     <row r="8190" spans="1:2">
@@ -65887,7 +65887,7 @@
         <v>8193</v>
       </c>
       <c r="B8193">
-        <v>16.85196571537762</v>
+        <v>16.85196571537761</v>
       </c>
     </row>
     <row r="8194" spans="1:2">
@@ -65999,7 +65999,7 @@
         <v>8207</v>
       </c>
       <c r="B8207">
-        <v>7.373462182992385</v>
+        <v>7.373462182992384</v>
       </c>
     </row>
     <row r="8208" spans="1:2">
@@ -68039,7 +68039,7 @@
         <v>8462</v>
       </c>
       <c r="B8462">
-        <v>7.326365667079506</v>
+        <v>7.326365667079505</v>
       </c>
     </row>
     <row r="8463" spans="1:2">
@@ -68199,7 +68199,7 @@
         <v>8482</v>
       </c>
       <c r="B8482">
-        <v>7.939675429686104</v>
+        <v>7.939675429686103</v>
       </c>
     </row>
     <row r="8483" spans="1:2">
@@ -68239,7 +68239,7 @@
         <v>8487</v>
       </c>
       <c r="B8487">
-        <v>15.77466588436238</v>
+        <v>15.77466588436237</v>
       </c>
     </row>
     <row r="8488" spans="1:2">
@@ -68255,7 +68255,7 @@
         <v>8489</v>
       </c>
       <c r="B8489">
-        <v>6.691339340508104</v>
+        <v>6.691339340508103</v>
       </c>
     </row>
     <row r="8490" spans="1:2">
@@ -68455,7 +68455,7 @@
         <v>8514</v>
       </c>
       <c r="B8514">
-        <v>7.948789938988472</v>
+        <v>7.948789938988471</v>
       </c>
     </row>
     <row r="8515" spans="1:2">
@@ -68487,7 +68487,7 @@
         <v>8518</v>
       </c>
       <c r="B8518">
-        <v>28.47088427152212</v>
+        <v>28.47088427152211</v>
       </c>
     </row>
     <row r="8519" spans="1:2">
